--- a/Pricing Logic/modules/manual/cart_rules_703_chunk_1.xlsx
+++ b/Pricing Logic/modules/manual/cart_rules_703_chunk_1.xlsx
@@ -399,13 +399,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>8915</v>
+        <v>8938</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
